--- a/Brazilian_e-commerce_data/Metadata/Brazilian_e-commerce_database_schema.xlsx
+++ b/Brazilian_e-commerce_data/Metadata/Brazilian_e-commerce_database_schema.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12375"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Duplicates" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,6 +234,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -242,15 +287,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,54 +320,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,11 +342,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,6 +372,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,15 +393,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="49">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,132 +499,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -628,36 +637,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -665,12 +650,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,16 +854,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,17 +874,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,11 +898,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,6 +930,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -971,152 +950,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1251,7 +1230,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,6 +1294,18 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1585,30 +1582,30 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.2857142857143" style="46" customWidth="1"/>
-    <col min="2" max="2" width="28.8571428571429" style="46" customWidth="1"/>
-    <col min="3" max="3" width="38.2857142857143" style="46" customWidth="1"/>
-    <col min="4" max="4" width="31" style="46" customWidth="1"/>
-    <col min="5" max="5" width="32.5714285714286" style="46" customWidth="1"/>
-    <col min="6" max="6" width="32" style="46" customWidth="1"/>
-    <col min="7" max="7" width="34.4285714285714" style="46" customWidth="1"/>
-    <col min="8" max="8" width="37.5714285714286" style="46" customWidth="1"/>
-    <col min="9" max="9" width="36.5714285714286" style="46" customWidth="1"/>
-    <col min="10" max="10" width="22.5714285714286" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="46"/>
+    <col min="1" max="1" width="37.4285714285714" style="46" customWidth="1"/>
+    <col min="2" max="2" width="31.1428571428571" style="47" customWidth="1"/>
+    <col min="3" max="3" width="41.2857142857143" style="47" customWidth="1"/>
+    <col min="4" max="4" width="33.4285714285714" style="47" customWidth="1"/>
+    <col min="5" max="5" width="35.2857142857143" style="47" customWidth="1"/>
+    <col min="6" max="6" width="34.5714285714286" style="47" customWidth="1"/>
+    <col min="7" max="7" width="37.1428571428571" style="47" customWidth="1"/>
+    <col min="8" max="8" width="40.7142857142857" style="47" customWidth="1"/>
+    <col min="9" max="9" width="39.5714285714286" style="47" customWidth="1"/>
+    <col min="10" max="10" width="24.2857142857143" style="47" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="47"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:10">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="39" t="s">
@@ -1629,7 +1626,7 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" ht="18.75" spans="1:10">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="48" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1651,7 +1648,7 @@
       <c r="J2" s="39"/>
     </row>
     <row r="3" ht="18.75" spans="1:10">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="39" t="s">
@@ -1683,7 +1680,7 @@
       </c>
     </row>
     <row r="4" ht="18.75" spans="1:10">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="39" t="s">
@@ -1701,13 +1698,13 @@
       <c r="J4" s="39"/>
     </row>
     <row r="5" ht="18.75" spans="1:10">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="39" t="s">
@@ -1731,7 +1728,7 @@
       <c r="J5" s="39"/>
     </row>
     <row r="6" ht="18.75" spans="1:10">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="48" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="39" t="s">
@@ -1759,7 +1756,7 @@
       <c r="J6" s="39"/>
     </row>
     <row r="7" ht="18.75" spans="1:10">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="48" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -1783,7 +1780,7 @@
       <c r="J7" s="39"/>
     </row>
     <row r="8" ht="18.75" spans="1:10">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="39" t="s">
@@ -1811,7 +1808,7 @@
       <c r="J8" s="39"/>
     </row>
     <row r="9" ht="18.75" spans="1:10">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="48" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="39" t="s">
@@ -1833,6 +1830,9 @@
       <c r="J9" s="39"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="$A1:$XFD1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -1845,21 +1845,21 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="33.2857142857143" style="38" customWidth="1"/>
-    <col min="2" max="2" width="28.8571428571429" style="38" customWidth="1"/>
-    <col min="3" max="3" width="38.2857142857143" style="38" customWidth="1"/>
-    <col min="4" max="4" width="31" style="38" customWidth="1"/>
-    <col min="5" max="5" width="32.5714285714286" style="38" customWidth="1"/>
-    <col min="6" max="6" width="32" style="38" customWidth="1"/>
-    <col min="7" max="7" width="34.4285714285714" style="38" customWidth="1"/>
-    <col min="8" max="8" width="37.5714285714286" style="38" customWidth="1"/>
-    <col min="9" max="9" width="36.5714285714286" style="38" customWidth="1"/>
-    <col min="10" max="10" width="22.5714285714286" style="38" customWidth="1"/>
+    <col min="1" max="1" width="36" style="38" customWidth="1"/>
+    <col min="2" max="2" width="31.1428571428571" style="38" customWidth="1"/>
+    <col min="3" max="3" width="41.2857142857143" style="38" customWidth="1"/>
+    <col min="4" max="4" width="33.4285714285714" style="38" customWidth="1"/>
+    <col min="5" max="5" width="35.2857142857143" style="38" customWidth="1"/>
+    <col min="6" max="6" width="34.5714285714286" style="38" customWidth="1"/>
+    <col min="7" max="7" width="37.1428571428571" style="38" customWidth="1"/>
+    <col min="8" max="8" width="40.7142857142857" style="38" customWidth="1"/>
+    <col min="9" max="9" width="39.5714285714286" style="38" customWidth="1"/>
+    <col min="10" max="10" width="24.2857142857143" style="38" customWidth="1"/>
     <col min="11" max="16384" width="9.14285714285714" style="38"/>
   </cols>
   <sheetData>
@@ -2150,20 +2150,40 @@
   <sheetPr/>
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8571428571429" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="10" width="10.8571428571429" style="14"/>
+    <col min="1" max="1" width="10.2857142857143" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.5714285714286" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.2857142857143" style="14" customWidth="1"/>
+    <col min="4" max="4" width="10.5714285714286" style="14" customWidth="1"/>
+    <col min="5" max="5" width="10.8571428571429" style="14" customWidth="1"/>
+    <col min="6" max="6" width="10.4285714285714" style="14" customWidth="1"/>
+    <col min="7" max="8" width="10.5714285714286" style="14" customWidth="1"/>
+    <col min="9" max="9" width="10.8571428571429" style="14" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" style="14" customWidth="1"/>
     <col min="11" max="11" width="4.14285714285714" style="14" customWidth="1"/>
-    <col min="12" max="21" width="10.8571428571429" style="14"/>
+    <col min="12" max="12" width="10.7142857142857" style="14" customWidth="1"/>
+    <col min="13" max="14" width="10.4285714285714" style="14" customWidth="1"/>
+    <col min="15" max="15" width="10.8571428571429" style="14" customWidth="1"/>
+    <col min="16" max="17" width="10.7142857142857" style="14" customWidth="1"/>
+    <col min="18" max="18" width="10.8571428571429" style="14" customWidth="1"/>
+    <col min="19" max="19" width="10.4285714285714" style="14" customWidth="1"/>
+    <col min="20" max="20" width="10.5714285714286" style="14" customWidth="1"/>
+    <col min="21" max="21" width="14.8571428571429" style="14" customWidth="1"/>
     <col min="22" max="22" width="4.14285714285714" style="14" customWidth="1"/>
-    <col min="23" max="16384" width="10.8571428571429" style="14"/>
+    <col min="23" max="23" width="9.14285714285714" style="14" customWidth="1"/>
+    <col min="24" max="24" width="10.8571428571429" style="14" customWidth="1"/>
+    <col min="25" max="25" width="10.4285714285714" style="14" customWidth="1"/>
+    <col min="26" max="26" width="10.5714285714286" style="14" customWidth="1"/>
+    <col min="27" max="27" width="10.7142857142857" style="14" customWidth="1"/>
+    <col min="28" max="16384" width="10.8571428571429" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="12:16">
+    <row r="1" spans="12:16">
       <c r="L1" s="26" t="s">
         <v>48</v>
       </c>
@@ -2200,7 +2220,7 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
     </row>
-    <row r="4" ht="18.75" customHeight="1" spans="1:27">
+    <row r="4" spans="1:27">
       <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
@@ -2235,7 +2255,7 @@
       <c r="Z4" s="18"/>
       <c r="AA4" s="19"/>
     </row>
-    <row r="5" ht="140.25" spans="1:27">
+    <row r="5" ht="117" spans="1:27">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -2306,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:19">
+    <row r="7" spans="1:19">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -2436,25 +2456,24 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A2:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="35.1428571428571" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.71428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5714285714286" style="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.8571428571429" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7142857142857" style="1" customWidth="1"/>
     <col min="6" max="6" width="2.71428571428571" style="1" customWidth="1"/>
-    <col min="7" max="7" width="42.1428571428571" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.7142857142857" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11.25" customHeight="1"/>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>31</v>
